--- a/Work/CHR_annotation/1810_SourcesOfGanges.xlsx
+++ b/Work/CHR_annotation/1810_SourcesOfGanges.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3969" uniqueCount="2254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4046" uniqueCount="2314">
   <si>
     <t xml:space="preserve">Geographical Entities (A)</t>
   </si>
@@ -5100,21 +5100,204 @@
     <t xml:space="preserve">Stango</t>
   </si>
   <si>
-    <t xml:space="preserve">Lieut. Colonel Colebrooke</t>
+    <t xml:space="preserve">Kentaisse, Kentais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghatti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaitraratha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D’Anville</t>
   </si>
   <si>
     <t xml:space="preserve">Asiatic Society</t>
   </si>
   <si>
-    <t xml:space="preserve">Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D’Anville</t>
+    <t xml:space="preserve">Tieffenthaller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanteshan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaibhraja</t>
   </si>
   <si>
     <t xml:space="preserve">India</t>
   </si>
   <si>
+    <t xml:space="preserve">Du Halde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanghi, Camhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarayu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sewalik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souciet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesuits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Of Eluths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desideri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manasarovara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindustan, Bharatvarsha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernoulli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eluths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Rennell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freyre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devprayaga, Deoprayaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cailasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captain Guthrie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pran-Puri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si-ning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangoutri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brahmedanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">British</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardwick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anquetil Du Perron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alacananda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandraprabha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhascara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captain Raper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhadrindth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menchow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cucudman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captain Hearsav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bindusarovara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cedarnath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satadru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohilkhund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vindusarovara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luncadeh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achoda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandacini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vindusaras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rudra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satalaj, Saturuz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamoutri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yamuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampoo, Brahmaputra</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ganges, Gunga, Gungagee, Gunga Jee</t>
   </si>
   <si>
@@ -6658,9 +6841,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bughti Gadh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cedarnath</t>
   </si>
   <si>
     <t xml:space="preserve">Til Ghar</t>
@@ -13987,10 +14167,10 @@
     </row>
     <row r="6" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>1954</v>
+        <v>2015</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>2056</v>
+        <v>2117</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -13998,10 +14178,10 @@
       <c r="G6" s="6"/>
       <c r="H6" s="8"/>
       <c r="I6" s="5" t="s">
-        <v>1948</v>
+        <v>2009</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>2057</v>
+        <v>2118</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9" t="s">
@@ -14011,7 +14191,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6" t="s">
-        <v>2058</v>
+        <v>2119</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -14025,7 +14205,7 @@
         <v>259</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>2059</v>
+        <v>2120</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -14033,10 +14213,10 @@
       <c r="G7" s="6"/>
       <c r="H7" s="8"/>
       <c r="I7" s="5" t="s">
-        <v>2060</v>
+        <v>2121</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>2061</v>
+        <v>2122</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>26</v>
@@ -14048,7 +14228,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6" t="s">
-        <v>2062</v>
+        <v>2123</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -14059,10 +14239,10 @@
     </row>
     <row r="8" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
-        <v>2063</v>
+        <v>2124</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>2064</v>
+        <v>2125</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -14070,7 +14250,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="8"/>
       <c r="I8" s="5" t="s">
-        <v>2065</v>
+        <v>2126</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15" t="s">
@@ -14092,10 +14272,10 @@
     </row>
     <row r="9" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
-        <v>2066</v>
+        <v>2127</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>2067</v>
+        <v>2128</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -14103,7 +14283,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="8"/>
       <c r="I9" s="9" t="s">
-        <v>2068</v>
+        <v>2129</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15" t="s">
@@ -14125,7 +14305,7 @@
     </row>
     <row r="10" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
-        <v>2069</v>
+        <v>2130</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -14150,7 +14330,7 @@
     </row>
     <row r="11" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
-        <v>2070</v>
+        <v>2131</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -14200,7 +14380,7 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>2071</v>
+        <v>2132</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -14225,7 +14405,7 @@
     </row>
     <row r="14" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>2072</v>
+        <v>2133</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -14275,7 +14455,7 @@
     </row>
     <row r="16" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
-        <v>2073</v>
+        <v>2134</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -17568,13 +17748,13 @@
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="6" t="s">
-        <v>2074</v>
+        <v>2135</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>2075</v>
+        <v>2136</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>2076</v>
+        <v>2137</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="5"/>
@@ -17592,28 +17772,28 @@
         <v>241</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>2077</v>
+        <v>2138</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2078</v>
+        <v>2139</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>2079</v>
+        <v>2140</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="8" t="s">
-        <v>2080</v>
+        <v>2141</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2081</v>
+        <v>2142</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>2082</v>
+        <v>2143</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="15" t="s">
-        <v>2083</v>
+        <v>2144</v>
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="5"/>
@@ -17624,10 +17804,10 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6" t="s">
-        <v>2084</v>
+        <v>2145</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>2085</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17635,24 +17815,24 @@
         <v>231</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>2086</v>
+        <v>2147</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>2087</v>
+        <v>2148</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>2088</v>
+        <v>2149</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="8" t="s">
-        <v>2089</v>
+        <v>2150</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>2090</v>
+        <v>2151</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>2091</v>
+        <v>2152</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>26</v>
@@ -17671,39 +17851,39 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6" t="s">
-        <v>2092</v>
+        <v>2153</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>2093</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
-        <v>2094</v>
+        <v>2155</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>2095</v>
+        <v>2156</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>2096</v>
+        <v>2157</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="8" t="s">
-        <v>2097</v>
+        <v>2158</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>2098</v>
+        <v>2159</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>2099</v>
+        <v>2160</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>26</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>2100</v>
+        <v>2161</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>26</v>
@@ -17719,28 +17899,28 @@
         <v>358</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>2101</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
-        <v>2102</v>
+        <v>2163</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>2103</v>
+        <v>2164</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="8" t="s">
-        <v>2104</v>
+        <v>2165</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>2105</v>
+        <v>2166</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>26</v>
@@ -17761,10 +17941,10 @@
     </row>
     <row r="10" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
-        <v>2106</v>
+        <v>2167</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>2107</v>
+        <v>2168</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -17775,7 +17955,7 @@
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="6" t="s">
-        <v>2108</v>
+        <v>2169</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -17802,7 +17982,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="8" t="s">
-        <v>2109</v>
+        <v>2170</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="6"/>
@@ -17821,7 +18001,7 @@
     </row>
     <row r="12" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="s">
-        <v>1796</v>
+        <v>1857</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -17829,7 +18009,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="8" t="s">
-        <v>2110</v>
+        <v>2171</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="6"/>
@@ -17848,7 +18028,7 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>2111</v>
+        <v>2172</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -17856,7 +18036,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="8" t="s">
-        <v>2112</v>
+        <v>2173</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="6"/>
@@ -17875,7 +18055,7 @@
     </row>
     <row r="14" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>2113</v>
+        <v>2174</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -17883,7 +18063,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="8" t="s">
-        <v>2114</v>
+        <v>2175</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="6"/>
@@ -17902,7 +18082,7 @@
     </row>
     <row r="15" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="s">
-        <v>2115</v>
+        <v>2176</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -17927,7 +18107,7 @@
     </row>
     <row r="16" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
-        <v>2116</v>
+        <v>2177</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -17952,7 +18132,7 @@
     </row>
     <row r="17" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="s">
-        <v>2117</v>
+        <v>2178</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -17977,7 +18157,7 @@
     </row>
     <row r="18" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="s">
-        <v>2118</v>
+        <v>2179</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -18002,7 +18182,7 @@
     </row>
     <row r="19" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5" t="s">
-        <v>2119</v>
+        <v>2180</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -18027,7 +18207,7 @@
     </row>
     <row r="20" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="s">
-        <v>2120</v>
+        <v>2181</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -18052,7 +18232,7 @@
     </row>
     <row r="21" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5" t="s">
-        <v>2121</v>
+        <v>2182</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -18077,7 +18257,7 @@
     </row>
     <row r="22" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="s">
-        <v>2122</v>
+        <v>2183</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -18102,7 +18282,7 @@
     </row>
     <row r="23" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="s">
-        <v>2123</v>
+        <v>2184</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -18127,7 +18307,7 @@
     </row>
     <row r="24" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5" t="s">
-        <v>2124</v>
+        <v>2185</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -18152,7 +18332,7 @@
     </row>
     <row r="25" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5" t="s">
-        <v>2125</v>
+        <v>2186</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -18177,7 +18357,7 @@
     </row>
     <row r="26" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5" t="s">
-        <v>2126</v>
+        <v>2187</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -18202,7 +18382,7 @@
     </row>
     <row r="27" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5" t="s">
-        <v>2127</v>
+        <v>2188</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -18227,7 +18407,7 @@
     </row>
     <row r="28" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>2128</v>
+        <v>2189</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -18252,7 +18432,7 @@
     </row>
     <row r="29" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5" t="s">
-        <v>2129</v>
+        <v>2190</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -18277,7 +18457,7 @@
     </row>
     <row r="30" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5" t="s">
-        <v>2130</v>
+        <v>2191</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -18302,7 +18482,7 @@
     </row>
     <row r="31" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="5" t="s">
-        <v>2131</v>
+        <v>2192</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -18327,7 +18507,7 @@
     </row>
     <row r="32" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="5" t="s">
-        <v>2132</v>
+        <v>2193</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -18377,7 +18557,7 @@
     </row>
     <row r="34" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="5" t="s">
-        <v>2133</v>
+        <v>2194</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -18427,7 +18607,7 @@
     </row>
     <row r="36" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="5" t="s">
-        <v>2134</v>
+        <v>2195</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -18452,7 +18632,7 @@
     </row>
     <row r="37" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="5" t="s">
-        <v>2135</v>
+        <v>2196</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -18477,7 +18657,7 @@
     </row>
     <row r="38" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="5" t="s">
-        <v>2136</v>
+        <v>2197</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -18502,7 +18682,7 @@
     </row>
     <row r="39" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="5" t="s">
-        <v>2137</v>
+        <v>2198</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -18527,7 +18707,7 @@
     </row>
     <row r="40" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="5" t="s">
-        <v>2138</v>
+        <v>2199</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -18552,7 +18732,7 @@
     </row>
     <row r="41" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="5" t="s">
-        <v>2139</v>
+        <v>2200</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -18577,7 +18757,7 @@
     </row>
     <row r="42" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="5" t="s">
-        <v>2140</v>
+        <v>2201</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -18602,7 +18782,7 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="5" t="s">
-        <v>2141</v>
+        <v>2202</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -18627,7 +18807,7 @@
     </row>
     <row r="44" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="5" t="s">
-        <v>2142</v>
+        <v>2203</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -18652,7 +18832,7 @@
     </row>
     <row r="45" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="5" t="s">
-        <v>2143</v>
+        <v>2204</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -18677,7 +18857,7 @@
     </row>
     <row r="46" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5" t="s">
-        <v>2144</v>
+        <v>2205</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -18702,7 +18882,7 @@
     </row>
     <row r="47" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="5" t="s">
-        <v>2145</v>
+        <v>2206</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -18727,7 +18907,7 @@
     </row>
     <row r="48" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="5" t="s">
-        <v>2146</v>
+        <v>2207</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -21299,38 +21479,38 @@
     </row>
     <row r="6" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>2147</v>
+        <v>2208</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2148</v>
+        <v>2209</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>2149</v>
+        <v>2210</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>2150</v>
+        <v>2211</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="8" t="s">
         <v>131</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2151</v>
+        <v>2212</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>2152</v>
+        <v>2213</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>2153</v>
+        <v>2214</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>2154</v>
+        <v>2215</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
@@ -21350,21 +21530,21 @@
         <v>38</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>2155</v>
+        <v>2216</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>2156</v>
+        <v>2217</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="35" t="s">
-        <v>2157</v>
+        <v>2218</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>2158</v>
+        <v>2219</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>2159</v>
+        <v>2220</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>26</v>
@@ -21390,24 +21570,24 @@
         <v>161</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>2160</v>
+        <v>2221</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>2161</v>
+        <v>2222</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>2162</v>
+        <v>2223</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="35" t="s">
-        <v>2163</v>
+        <v>2224</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>2164</v>
+        <v>2225</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>26</v>
@@ -21430,16 +21610,16 @@
     </row>
     <row r="9" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="17" t="s">
-        <v>2165</v>
+        <v>2226</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>2166</v>
+        <v>2227</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>2167</v>
+        <v>2228</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>2168</v>
+        <v>2229</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -21450,7 +21630,7 @@
         <v>26</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>2169</v>
+        <v>2230</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>26</v>
@@ -21479,13 +21659,13 @@
         <v>118</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>2170</v>
+        <v>2231</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="35" t="s">
-        <v>2171</v>
+        <v>2232</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="6"/>
@@ -21504,19 +21684,19 @@
     </row>
     <row r="11" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="17" t="s">
-        <v>2172</v>
+        <v>2233</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>2173</v>
+        <v>2234</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>2174</v>
+        <v>2235</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="35" t="s">
-        <v>2175</v>
+        <v>2236</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="6"/>
@@ -21535,19 +21715,19 @@
     </row>
     <row r="12" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="17" t="s">
-        <v>2176</v>
+        <v>2237</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>2177</v>
+        <v>2238</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>2178</v>
+        <v>2239</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="35" t="s">
-        <v>2179</v>
+        <v>2240</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="6"/>
@@ -21566,19 +21746,19 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="17" t="s">
-        <v>2180</v>
+        <v>2241</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>2181</v>
+        <v>2242</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>2182</v>
+        <v>2243</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="35" t="s">
-        <v>2183</v>
+        <v>2244</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="6"/>
@@ -21597,19 +21777,19 @@
     </row>
     <row r="14" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="17" t="s">
-        <v>2184</v>
+        <v>2245</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>2177</v>
+        <v>2238</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>2185</v>
+        <v>2246</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="35" t="s">
-        <v>2186</v>
+        <v>2247</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="6"/>
@@ -21628,19 +21808,19 @@
     </row>
     <row r="15" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="17" t="s">
-        <v>2187</v>
+        <v>2248</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>2188</v>
+        <v>2249</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>2189</v>
+        <v>2250</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="35" t="s">
-        <v>2190</v>
+        <v>2251</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="6"/>
@@ -21659,19 +21839,19 @@
     </row>
     <row r="16" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="17" t="s">
-        <v>2191</v>
+        <v>2252</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>2192</v>
+        <v>2253</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>2193</v>
+        <v>2254</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="35" t="s">
-        <v>2194</v>
+        <v>2255</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="6"/>
@@ -21690,19 +21870,19 @@
     </row>
     <row r="17" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="17" t="s">
-        <v>2195</v>
+        <v>2256</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>2196</v>
+        <v>2257</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>2197</v>
+        <v>2258</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="35" t="s">
-        <v>2198</v>
+        <v>2259</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="6"/>
@@ -21721,19 +21901,19 @@
     </row>
     <row r="18" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="17" t="s">
-        <v>2199</v>
+        <v>2260</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>2200</v>
+        <v>2261</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>2201</v>
+        <v>2262</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="35" t="s">
-        <v>2202</v>
+        <v>2263</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="6"/>
@@ -21758,7 +21938,7 @@
         <v>1408</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>2203</v>
+        <v>2264</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -21781,13 +21961,13 @@
     </row>
     <row r="20" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="17" t="s">
-        <v>2204</v>
+        <v>2265</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>2205</v>
+        <v>2266</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>2206</v>
+        <v>2267</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -21810,10 +21990,10 @@
     </row>
     <row r="21" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="17" t="s">
-        <v>2207</v>
+        <v>2268</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>2208</v>
+        <v>2269</v>
       </c>
       <c r="D21" s="49" t="s">
         <v>617</v>
@@ -21839,13 +22019,13 @@
     </row>
     <row r="22" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="17" t="s">
-        <v>2209</v>
+        <v>1740</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>2210</v>
+        <v>2270</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>2211</v>
+        <v>2271</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -21868,13 +22048,13 @@
     </row>
     <row r="23" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="17" t="s">
-        <v>2212</v>
+        <v>2272</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>2213</v>
+        <v>2273</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>2214</v>
+        <v>2274</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -21897,10 +22077,10 @@
     </row>
     <row r="24" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="17" t="s">
-        <v>2215</v>
+        <v>2275</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>2216</v>
+        <v>2276</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -21924,10 +22104,10 @@
     </row>
     <row r="25" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="17" t="s">
-        <v>2217</v>
+        <v>2277</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>2218</v>
+        <v>2278</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -21951,10 +22131,10 @@
     </row>
     <row r="26" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="17" t="s">
-        <v>2219</v>
+        <v>2279</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>2220</v>
+        <v>2280</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -21978,10 +22158,10 @@
     </row>
     <row r="27" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="17" t="s">
-        <v>2221</v>
+        <v>2281</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>2222</v>
+        <v>2282</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -22005,7 +22185,7 @@
     </row>
     <row r="28" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="17" t="s">
-        <v>2223</v>
+        <v>2283</v>
       </c>
       <c r="C28" s="49" t="s">
         <v>1423</v>
@@ -22032,10 +22212,10 @@
     </row>
     <row r="29" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="17" t="s">
-        <v>2224</v>
+        <v>2284</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>2225</v>
+        <v>2285</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -22059,10 +22239,10 @@
     </row>
     <row r="30" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="17" t="s">
-        <v>1861</v>
+        <v>1922</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>2226</v>
+        <v>2286</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -22086,10 +22266,10 @@
     </row>
     <row r="31" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="17" t="s">
-        <v>2227</v>
+        <v>2287</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>2228</v>
+        <v>2288</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -22113,10 +22293,10 @@
     </row>
     <row r="32" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="17" t="s">
-        <v>2229</v>
+        <v>2289</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>2230</v>
+        <v>2290</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -22140,10 +22320,10 @@
     </row>
     <row r="33" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="17" t="s">
-        <v>2231</v>
+        <v>2291</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>2232</v>
+        <v>2292</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -22167,10 +22347,10 @@
     </row>
     <row r="34" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="17" t="s">
-        <v>2233</v>
+        <v>2293</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>2234</v>
+        <v>2294</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -22194,10 +22374,10 @@
     </row>
     <row r="35" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="17" t="s">
-        <v>2235</v>
+        <v>2295</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>2236</v>
+        <v>2296</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -22221,10 +22401,10 @@
     </row>
     <row r="36" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="17" t="s">
-        <v>2237</v>
+        <v>2297</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>2238</v>
+        <v>2298</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -22251,7 +22431,7 @@
         <v>997</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>2239</v>
+        <v>2299</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -22275,10 +22455,10 @@
     </row>
     <row r="38" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="17" t="s">
-        <v>2240</v>
+        <v>2300</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>2241</v>
+        <v>2301</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -22302,10 +22482,10 @@
     </row>
     <row r="39" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="17" t="s">
-        <v>2242</v>
+        <v>2302</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>2243</v>
+        <v>2303</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -22329,7 +22509,7 @@
     </row>
     <row r="40" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="17" t="s">
-        <v>2244</v>
+        <v>2304</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -22354,7 +22534,7 @@
     </row>
     <row r="41" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="17" t="s">
-        <v>2245</v>
+        <v>2305</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -22379,7 +22559,7 @@
     </row>
     <row r="42" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="17" t="s">
-        <v>2246</v>
+        <v>2306</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -22404,7 +22584,7 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="17" t="s">
-        <v>2247</v>
+        <v>2307</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -22429,7 +22609,7 @@
     </row>
     <row r="44" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="17" t="s">
-        <v>2248</v>
+        <v>2308</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -22454,7 +22634,7 @@
     </row>
     <row r="45" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="17" t="s">
-        <v>2249</v>
+        <v>2309</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -22479,7 +22659,7 @@
     </row>
     <row r="46" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="17" t="s">
-        <v>2250</v>
+        <v>2310</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -22529,7 +22709,7 @@
     </row>
     <row r="48" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="17" t="s">
-        <v>2251</v>
+        <v>2311</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -22554,7 +22734,7 @@
     </row>
     <row r="49" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="17" t="s">
-        <v>2252</v>
+        <v>2312</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -22579,7 +22759,7 @@
     </row>
     <row r="50" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="5" t="s">
-        <v>2253</v>
+        <v>2313</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -49617,8 +49797,8 @@
   </sheetPr>
   <dimension ref="B3:V178"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49802,20 +49982,32 @@
       <c r="C6" s="6" t="s">
         <v>1621</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1691</v>
+      </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>1692</v>
+      </c>
       <c r="I6" s="46" t="s">
-        <v>1689</v>
+        <v>1693</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>1690</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="13"/>
+        <v>1694</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="9" t="s">
+        <v>1695</v>
+      </c>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -49828,21 +50020,35 @@
     </row>
     <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+        <v>1361</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1697</v>
+      </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>1698</v>
+      </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>1699</v>
+      </c>
       <c r="I7" s="5" t="s">
-        <v>1692</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="18"/>
+        <v>1700</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>1701</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="15" t="s">
+        <v>1702</v>
+      </c>
       <c r="N7" s="5"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -49855,19 +50061,33 @@
     </row>
     <row r="8" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+        <v>1127</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1704</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="18"/>
+      <c r="H8" s="6" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>1706</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>1707</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>1708</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="18" t="s">
+        <v>1709</v>
+      </c>
       <c r="N8" s="5"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -49878,19 +50098,35 @@
       <c r="U8" s="6"/>
       <c r="V8" s="8"/>
     </row>
-    <row r="9" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+    <row r="9" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1711</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="H9" s="8" t="s">
+        <v>1712</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>1713</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>1714</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>1715</v>
+      </c>
       <c r="L9" s="15"/>
-      <c r="M9" s="18"/>
+      <c r="M9" s="18" t="s">
+        <v>1716</v>
+      </c>
       <c r="N9" s="5"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -49901,19 +50137,35 @@
       <c r="U9" s="6"/>
       <c r="V9" s="8"/>
     </row>
-    <row r="10" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+    <row r="10" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="5" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1718</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>1719</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>1720</v>
+      </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="8"/>
+      <c r="M10" s="8" t="s">
+        <v>1721</v>
+      </c>
       <c r="N10" s="5"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -49924,17 +50176,31 @@
       <c r="U10" s="6"/>
       <c r="V10" s="8"/>
     </row>
-    <row r="11" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+    <row r="11" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="5" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1724</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="H11" s="8" t="s">
+        <v>1725</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>1726</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>1727</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="M11" s="8"/>
       <c r="N11" s="5"/>
@@ -49947,17 +50213,27 @@
       <c r="U11" s="6"/>
       <c r="V11" s="8"/>
     </row>
-    <row r="12" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+    <row r="12" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="5" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1603</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>1729</v>
+      </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>593</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="8"/>
       <c r="N12" s="5"/>
@@ -49970,17 +50246,27 @@
       <c r="U12" s="6"/>
       <c r="V12" s="8"/>
     </row>
-    <row r="13" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+    <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1731</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>1732</v>
+      </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>1733</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="8"/>
       <c r="N13" s="5"/>
@@ -49993,17 +50279,25 @@
       <c r="U13" s="6"/>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+    <row r="14" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="5" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>1736</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="8"/>
       <c r="I14" s="5"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="K14" s="6" t="s">
+        <v>1737</v>
+      </c>
       <c r="L14" s="6"/>
       <c r="M14" s="8"/>
       <c r="N14" s="5"/>
@@ -50016,17 +50310,25 @@
       <c r="U14" s="6"/>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+    <row r="15" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="5" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>1740</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="8"/>
       <c r="I15" s="5"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="K15" s="6" t="s">
+        <v>1741</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="8"/>
       <c r="N15" s="5"/>
@@ -50039,9 +50341,13 @@
       <c r="U15" s="6"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+    <row r="16" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="5" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>1742</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -50062,9 +50368,13 @@
       <c r="U16" s="6"/>
       <c r="V16" s="8"/>
     </row>
-    <row r="17" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+    <row r="17" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1743</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -50085,9 +50395,13 @@
       <c r="U17" s="6"/>
       <c r="V17" s="8"/>
     </row>
-    <row r="18" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
+    <row r="18" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="5" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>1745</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -50108,9 +50422,11 @@
       <c r="U18" s="6"/>
       <c r="V18" s="8"/>
     </row>
-    <row r="19" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>1746</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -50131,9 +50447,11 @@
       <c r="U19" s="6"/>
       <c r="V19" s="8"/>
     </row>
-    <row r="20" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>1747</v>
+      </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -50154,9 +50472,11 @@
       <c r="U20" s="6"/>
       <c r="V20" s="8"/>
     </row>
-    <row r="21" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>1748</v>
+      </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -50177,9 +50497,11 @@
       <c r="U21" s="6"/>
       <c r="V21" s="8"/>
     </row>
-    <row r="22" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>1749</v>
+      </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -50200,9 +50522,11 @@
       <c r="U22" s="6"/>
       <c r="V22" s="8"/>
     </row>
-    <row r="23" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>1750</v>
+      </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -50223,9 +50547,11 @@
       <c r="U23" s="6"/>
       <c r="V23" s="8"/>
     </row>
-    <row r="24" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>1751</v>
+      </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -50246,9 +50572,11 @@
       <c r="U24" s="6"/>
       <c r="V24" s="8"/>
     </row>
-    <row r="25" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>1752</v>
+      </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -50269,9 +50597,11 @@
       <c r="U25" s="6"/>
       <c r="V25" s="8"/>
     </row>
-    <row r="26" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>1753</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -50292,9 +50622,11 @@
       <c r="U26" s="6"/>
       <c r="V26" s="8"/>
     </row>
-    <row r="27" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>1644</v>
+      </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -50315,9 +50647,11 @@
       <c r="U27" s="6"/>
       <c r="V27" s="8"/>
     </row>
-    <row r="28" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>1754</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -53378,45 +53712,45 @@
         <v>259</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1694</v>
+        <v>1755</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1695</v>
+        <v>1756</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1696</v>
+        <v>1757</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1697</v>
+        <v>1758</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="7" t="s">
         <v>1624</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>1698</v>
+        <v>1759</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>1699</v>
+        <v>1760</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>1700</v>
+        <v>1761</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>1701</v>
+        <v>1762</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6" t="s">
-        <v>1702</v>
+        <v>1763</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6" t="s">
-        <v>1703</v>
+        <v>1764</v>
       </c>
       <c r="V6" s="8"/>
     </row>
@@ -53428,18 +53762,18 @@
         <v>323</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1704</v>
+        <v>1765</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1705</v>
+        <v>1766</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
-        <v>1706</v>
+        <v>1767</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>1707</v>
+        <v>1768</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>365</v>
@@ -53448,7 +53782,7 @@
         <v>344</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>1708</v>
+        <v>1769</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="5"/>
@@ -53459,39 +53793,39 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6" t="s">
-        <v>1709</v>
+        <v>1770</v>
       </c>
       <c r="V7" s="8"/>
     </row>
     <row r="8" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
-        <v>1710</v>
+        <v>1771</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1711</v>
+        <v>1772</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1712</v>
+        <v>1773</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1713</v>
+        <v>1774</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
-        <v>1714</v>
+        <v>1775</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1715</v>
+        <v>1776</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>343</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>1716</v>
+        <v>1777</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>1717</v>
+        <v>1778</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="5"/>
@@ -53502,33 +53836,33 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6" t="s">
-        <v>1718</v>
+        <v>1779</v>
       </c>
       <c r="V8" s="8"/>
     </row>
     <row r="9" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
-        <v>1719</v>
+        <v>1780</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1720</v>
+        <v>1781</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1721</v>
+        <v>1782</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1722</v>
+        <v>1783</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
-        <v>1723</v>
+        <v>1784</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>1724</v>
+        <v>1785</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>1725</v>
+        <v>1786</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
@@ -53549,29 +53883,29 @@
     </row>
     <row r="10" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
-        <v>1726</v>
+        <v>1787</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1727</v>
+        <v>1788</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1728</v>
+        <v>1789</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7" t="s">
-        <v>1729</v>
+        <v>1790</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>1730</v>
+        <v>1791</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>1731</v>
+        <v>1792</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>1732</v>
+        <v>1793</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="5"/>
@@ -53588,22 +53922,22 @@
     </row>
     <row r="11" s="4" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
-        <v>1733</v>
+        <v>1794</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1734</v>
+        <v>1795</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1735</v>
+        <v>1796</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7" t="s">
-        <v>1736</v>
+        <v>1797</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>1737</v>
+        <v>1798</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>88</v>
@@ -53621,35 +53955,35 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6" t="s">
-        <v>1738</v>
+        <v>1799</v>
       </c>
       <c r="V11" s="8"/>
     </row>
     <row r="12" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="s">
-        <v>1739</v>
+        <v>1800</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1740</v>
+        <v>1801</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1741</v>
+        <v>1802</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7" t="s">
-        <v>1742</v>
+        <v>1803</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>1743</v>
+        <v>1804</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>1744</v>
+        <v>1805</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6" t="s">
-        <v>1745</v>
+        <v>1806</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="5"/>
@@ -53660,31 +53994,31 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6" t="s">
-        <v>1746</v>
+        <v>1807</v>
       </c>
       <c r="V12" s="8"/>
     </row>
     <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>1747</v>
+        <v>1808</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1748</v>
+        <v>1809</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1749</v>
+        <v>1810</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7" t="s">
-        <v>1750</v>
+        <v>1811</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>1751</v>
+        <v>1812</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>1752</v>
+        <v>1813</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -53697,31 +54031,31 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6" t="s">
-        <v>1753</v>
+        <v>1814</v>
       </c>
       <c r="V13" s="8"/>
     </row>
     <row r="14" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>1754</v>
+        <v>1815</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1755</v>
+        <v>1816</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1756</v>
+        <v>1817</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="7" t="s">
-        <v>1757</v>
+        <v>1818</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>1758</v>
+        <v>1819</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>1759</v>
+        <v>1820</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -53738,22 +54072,22 @@
     </row>
     <row r="15" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="s">
-        <v>1760</v>
+        <v>1821</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1761</v>
+        <v>1822</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1762</v>
+        <v>1823</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
-        <v>1763</v>
+        <v>1824</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1764</v>
+        <v>1825</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -53771,22 +54105,22 @@
     </row>
     <row r="16" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
-        <v>1765</v>
+        <v>1826</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1766</v>
+        <v>1827</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1767</v>
+        <v>1828</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="7" t="s">
-        <v>1768</v>
+        <v>1829</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>1769</v>
+        <v>1830</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -53804,22 +54138,22 @@
     </row>
     <row r="17" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="s">
-        <v>1770</v>
+        <v>1831</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>1408</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1771</v>
+        <v>1832</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="7" t="s">
-        <v>1772</v>
+        <v>1833</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>1773</v>
+        <v>1834</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -53837,20 +54171,20 @@
     </row>
     <row r="18" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="s">
-        <v>1774</v>
+        <v>1835</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1775</v>
+        <v>1836</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="7" t="s">
-        <v>1776</v>
+        <v>1837</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>1777</v>
+        <v>1838</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -53868,20 +54202,20 @@
     </row>
     <row r="19" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5" t="s">
-        <v>1778</v>
+        <v>1839</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1779</v>
+        <v>1840</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="7" t="s">
-        <v>1780</v>
+        <v>1841</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1781</v>
+        <v>1842</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -53899,20 +54233,20 @@
     </row>
     <row r="20" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="s">
-        <v>1782</v>
+        <v>1843</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1783</v>
+        <v>1844</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="7" t="s">
-        <v>1784</v>
+        <v>1845</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1785</v>
+        <v>1846</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -53930,20 +54264,20 @@
     </row>
     <row r="21" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5" t="s">
-        <v>1786</v>
+        <v>1847</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1787</v>
+        <v>1848</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="7" t="s">
-        <v>1788</v>
+        <v>1849</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>1789</v>
+        <v>1850</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -53961,7 +54295,7 @@
     </row>
     <row r="22" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="s">
-        <v>1790</v>
+        <v>1851</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -53969,7 +54303,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="7" t="s">
-        <v>1791</v>
+        <v>1852</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="6"/>
@@ -53988,7 +54322,7 @@
     </row>
     <row r="23" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="s">
-        <v>1792</v>
+        <v>1853</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -53996,7 +54330,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="7" t="s">
-        <v>1793</v>
+        <v>1854</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="6"/>
@@ -54015,7 +54349,7 @@
     </row>
     <row r="24" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5" t="s">
-        <v>1794</v>
+        <v>1855</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -54023,7 +54357,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="7" t="s">
-        <v>1795</v>
+        <v>1856</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="6"/>
@@ -54042,7 +54376,7 @@
     </row>
     <row r="25" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5" t="s">
-        <v>1796</v>
+        <v>1857</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -54050,7 +54384,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="7" t="s">
-        <v>1797</v>
+        <v>1858</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
@@ -54069,7 +54403,7 @@
     </row>
     <row r="26" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5" t="s">
-        <v>1798</v>
+        <v>1859</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -54077,7 +54411,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="7" t="s">
-        <v>1799</v>
+        <v>1860</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="6"/>
@@ -54104,7 +54438,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="s">
-        <v>1800</v>
+        <v>1861</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
@@ -54123,7 +54457,7 @@
     </row>
     <row r="28" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>1801</v>
+        <v>1862</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -54131,7 +54465,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="s">
-        <v>1802</v>
+        <v>1863</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="6"/>
@@ -54150,7 +54484,7 @@
     </row>
     <row r="29" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5" t="s">
-        <v>1803</v>
+        <v>1864</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -54158,7 +54492,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7" t="s">
-        <v>1804</v>
+        <v>1865</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="6"/>
@@ -54177,7 +54511,7 @@
     </row>
     <row r="30" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5" t="s">
-        <v>1805</v>
+        <v>1866</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -54185,7 +54519,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7" t="s">
-        <v>1806</v>
+        <v>1867</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="6"/>
@@ -54204,7 +54538,7 @@
     </row>
     <row r="31" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="5" t="s">
-        <v>1807</v>
+        <v>1868</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -54212,7 +54546,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7" t="s">
-        <v>1808</v>
+        <v>1869</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="6"/>
@@ -54231,7 +54565,7 @@
     </row>
     <row r="32" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="5" t="s">
-        <v>1809</v>
+        <v>1870</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -54239,7 +54573,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="7" t="s">
-        <v>1810</v>
+        <v>1871</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="6"/>
@@ -54258,7 +54592,7 @@
     </row>
     <row r="33" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="5" t="s">
-        <v>1811</v>
+        <v>1872</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -54266,7 +54600,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="7" t="s">
-        <v>1812</v>
+        <v>1873</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="6"/>
@@ -54285,7 +54619,7 @@
     </row>
     <row r="34" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="5" t="s">
-        <v>1813</v>
+        <v>1874</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -54293,7 +54627,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="7" t="s">
-        <v>1814</v>
+        <v>1875</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="6"/>
@@ -54312,7 +54646,7 @@
     </row>
     <row r="35" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="5" t="s">
-        <v>1815</v>
+        <v>1876</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -54320,7 +54654,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="7" t="s">
-        <v>1816</v>
+        <v>1877</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="6"/>
@@ -54339,7 +54673,7 @@
     </row>
     <row r="36" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="5" t="s">
-        <v>1817</v>
+        <v>1878</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -54347,7 +54681,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="7" t="s">
-        <v>1818</v>
+        <v>1879</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="6"/>
@@ -54366,7 +54700,7 @@
     </row>
     <row r="37" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="5" t="s">
-        <v>1819</v>
+        <v>1880</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -54374,7 +54708,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="7" t="s">
-        <v>1820</v>
+        <v>1881</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
@@ -54393,7 +54727,7 @@
     </row>
     <row r="38" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="5" t="s">
-        <v>1821</v>
+        <v>1882</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -54401,7 +54735,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="7" t="s">
-        <v>1822</v>
+        <v>1883</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="6"/>
@@ -54420,7 +54754,7 @@
     </row>
     <row r="39" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="5" t="s">
-        <v>1823</v>
+        <v>1884</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -54445,7 +54779,7 @@
     </row>
     <row r="40" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="5" t="s">
-        <v>1824</v>
+        <v>1885</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -54470,7 +54804,7 @@
     </row>
     <row r="41" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="5" t="s">
-        <v>1825</v>
+        <v>1886</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -54495,7 +54829,7 @@
     </row>
     <row r="42" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="5" t="s">
-        <v>1826</v>
+        <v>1887</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -54520,7 +54854,7 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="5" t="s">
-        <v>1827</v>
+        <v>1888</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -54545,7 +54879,7 @@
     </row>
     <row r="44" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="5" t="s">
-        <v>1828</v>
+        <v>1889</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -54570,7 +54904,7 @@
     </row>
     <row r="45" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="5" t="s">
-        <v>1829</v>
+        <v>1890</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -54595,7 +54929,7 @@
     </row>
     <row r="46" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5" t="s">
-        <v>1830</v>
+        <v>1891</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -54620,7 +54954,7 @@
     </row>
     <row r="47" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="5" t="s">
-        <v>1831</v>
+        <v>1892</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -54645,7 +54979,7 @@
     </row>
     <row r="48" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="5" t="s">
-        <v>1832</v>
+        <v>1893</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -54745,7 +55079,7 @@
     </row>
     <row r="52" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="5" t="s">
-        <v>1833</v>
+        <v>1894</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -54770,7 +55104,7 @@
     </row>
     <row r="53" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="5" t="s">
-        <v>1834</v>
+        <v>1895</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -54795,7 +55129,7 @@
     </row>
     <row r="54" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="5" t="s">
-        <v>1835</v>
+        <v>1896</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -54845,7 +55179,7 @@
     </row>
     <row r="56" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="5" t="s">
-        <v>1836</v>
+        <v>1897</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -54870,7 +55204,7 @@
     </row>
     <row r="57" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="5" t="s">
-        <v>1837</v>
+        <v>1898</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -54895,7 +55229,7 @@
     </row>
     <row r="58" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="5" t="s">
-        <v>1838</v>
+        <v>1899</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -54920,7 +55254,7 @@
     </row>
     <row r="59" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="5" t="s">
-        <v>1839</v>
+        <v>1900</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -54945,7 +55279,7 @@
     </row>
     <row r="60" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="5" t="s">
-        <v>1840</v>
+        <v>1901</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -54970,7 +55304,7 @@
     </row>
     <row r="61" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="5" t="s">
-        <v>1841</v>
+        <v>1902</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -54995,7 +55329,7 @@
     </row>
     <row r="62" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="5" t="s">
-        <v>1842</v>
+        <v>1903</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -55020,7 +55354,7 @@
     </row>
     <row r="63" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="5" t="s">
-        <v>1843</v>
+        <v>1904</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -55120,7 +55454,7 @@
     </row>
     <row r="67" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="5" t="s">
-        <v>1844</v>
+        <v>1905</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -55145,7 +55479,7 @@
     </row>
     <row r="68" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="5" t="s">
-        <v>1845</v>
+        <v>1906</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -55170,7 +55504,7 @@
     </row>
     <row r="69" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="5" t="s">
-        <v>1846</v>
+        <v>1907</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -55195,7 +55529,7 @@
     </row>
     <row r="70" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="5" t="s">
-        <v>1847</v>
+        <v>1908</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -55220,7 +55554,7 @@
     </row>
     <row r="71" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="5" t="s">
-        <v>1848</v>
+        <v>1909</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -55245,7 +55579,7 @@
     </row>
     <row r="72" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="5" t="s">
-        <v>1849</v>
+        <v>1910</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -55270,7 +55604,7 @@
     </row>
     <row r="73" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="5" t="s">
-        <v>1850</v>
+        <v>1911</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -55295,7 +55629,7 @@
     </row>
     <row r="74" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="5" t="s">
-        <v>1802</v>
+        <v>1863</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -55320,7 +55654,7 @@
     </row>
     <row r="75" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="5" t="s">
-        <v>1851</v>
+        <v>1912</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -55345,7 +55679,7 @@
     </row>
     <row r="76" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="5" t="s">
-        <v>1852</v>
+        <v>1913</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -55370,7 +55704,7 @@
     </row>
     <row r="77" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="5" t="s">
-        <v>1853</v>
+        <v>1914</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -55395,7 +55729,7 @@
     </row>
     <row r="78" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="5" t="s">
-        <v>1854</v>
+        <v>1915</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -55420,7 +55754,7 @@
     </row>
     <row r="79" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="5" t="s">
-        <v>1855</v>
+        <v>1916</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -55445,7 +55779,7 @@
     </row>
     <row r="80" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="5" t="s">
-        <v>1856</v>
+        <v>1917</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -55470,7 +55804,7 @@
     </row>
     <row r="81" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="5" t="s">
-        <v>1857</v>
+        <v>1918</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -55495,7 +55829,7 @@
     </row>
     <row r="82" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="5" t="s">
-        <v>1858</v>
+        <v>1919</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -55520,7 +55854,7 @@
     </row>
     <row r="83" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="5" t="s">
-        <v>1859</v>
+        <v>1920</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -55545,7 +55879,7 @@
     </row>
     <row r="84" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="5" t="s">
-        <v>1860</v>
+        <v>1921</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -55595,7 +55929,7 @@
     </row>
     <row r="86" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="5" t="s">
-        <v>1861</v>
+        <v>1922</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -55620,7 +55954,7 @@
     </row>
     <row r="87" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="5" t="s">
-        <v>1862</v>
+        <v>1923</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -55645,7 +55979,7 @@
     </row>
     <row r="88" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="5" t="s">
-        <v>1863</v>
+        <v>1924</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -55670,7 +56004,7 @@
     </row>
     <row r="89" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="5" t="s">
-        <v>1864</v>
+        <v>1925</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -55695,7 +56029,7 @@
     </row>
     <row r="90" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="5" t="s">
-        <v>1865</v>
+        <v>1926</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -55720,7 +56054,7 @@
     </row>
     <row r="91" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="5" t="s">
-        <v>1866</v>
+        <v>1927</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -55745,7 +56079,7 @@
     </row>
     <row r="92" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="5" t="s">
-        <v>1867</v>
+        <v>1928</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -55770,7 +56104,7 @@
     </row>
     <row r="93" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="5" t="s">
-        <v>1868</v>
+        <v>1929</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -55795,7 +56129,7 @@
     </row>
     <row r="94" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="5" t="s">
-        <v>1869</v>
+        <v>1930</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -55820,7 +56154,7 @@
     </row>
     <row r="95" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="5" t="s">
-        <v>1870</v>
+        <v>1931</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -55845,7 +56179,7 @@
     </row>
     <row r="96" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="5" t="s">
-        <v>1871</v>
+        <v>1932</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -55895,7 +56229,7 @@
     </row>
     <row r="98" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="5" t="s">
-        <v>1872</v>
+        <v>1933</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -55920,7 +56254,7 @@
     </row>
     <row r="99" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="5" t="s">
-        <v>1873</v>
+        <v>1934</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -55945,7 +56279,7 @@
     </row>
     <row r="100" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="5" t="s">
-        <v>1874</v>
+        <v>1935</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -55970,7 +56304,7 @@
     </row>
     <row r="101" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="5" t="s">
-        <v>1875</v>
+        <v>1936</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -55995,7 +56329,7 @@
     </row>
     <row r="102" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="5" t="s">
-        <v>1876</v>
+        <v>1937</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -56045,7 +56379,7 @@
     </row>
     <row r="104" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="5" t="s">
-        <v>1877</v>
+        <v>1938</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -56070,7 +56404,7 @@
     </row>
     <row r="105" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="5" t="s">
-        <v>1878</v>
+        <v>1939</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -56095,7 +56429,7 @@
     </row>
     <row r="106" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="5" t="s">
-        <v>1879</v>
+        <v>1940</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -56120,7 +56454,7 @@
     </row>
     <row r="107" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="5" t="s">
-        <v>1880</v>
+        <v>1941</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -56145,7 +56479,7 @@
     </row>
     <row r="108" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="5" t="s">
-        <v>1881</v>
+        <v>1942</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -56170,7 +56504,7 @@
     </row>
     <row r="109" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="5" t="s">
-        <v>1882</v>
+        <v>1943</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -56195,7 +56529,7 @@
     </row>
     <row r="110" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="5" t="s">
-        <v>1883</v>
+        <v>1944</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -56220,7 +56554,7 @@
     </row>
     <row r="111" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="5" t="s">
-        <v>1884</v>
+        <v>1945</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -56245,7 +56579,7 @@
     </row>
     <row r="112" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="5" t="s">
-        <v>1885</v>
+        <v>1946</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -56270,7 +56604,7 @@
     </row>
     <row r="113" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="5" t="s">
-        <v>1886</v>
+        <v>1947</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -56295,7 +56629,7 @@
     </row>
     <row r="114" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="5" t="s">
-        <v>1887</v>
+        <v>1948</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -56320,7 +56654,7 @@
     </row>
     <row r="115" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="5" t="s">
-        <v>1888</v>
+        <v>1949</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -56345,7 +56679,7 @@
     </row>
     <row r="116" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="5" t="s">
-        <v>1889</v>
+        <v>1950</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -56370,7 +56704,7 @@
     </row>
     <row r="117" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="5" t="s">
-        <v>1890</v>
+        <v>1951</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -56420,7 +56754,7 @@
     </row>
     <row r="119" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="5" t="s">
-        <v>1891</v>
+        <v>1952</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -56445,7 +56779,7 @@
     </row>
     <row r="120" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="5" t="s">
-        <v>1892</v>
+        <v>1953</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -56470,7 +56804,7 @@
     </row>
     <row r="121" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="5" t="s">
-        <v>1893</v>
+        <v>1954</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -56495,7 +56829,7 @@
     </row>
     <row r="122" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="5" t="s">
-        <v>1894</v>
+        <v>1955</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -56520,7 +56854,7 @@
     </row>
     <row r="123" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="5" t="s">
-        <v>1895</v>
+        <v>1956</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -56545,7 +56879,7 @@
     </row>
     <row r="124" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="5" t="s">
-        <v>1896</v>
+        <v>1957</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -56570,7 +56904,7 @@
     </row>
     <row r="125" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="5" t="s">
-        <v>1897</v>
+        <v>1958</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -56595,7 +56929,7 @@
     </row>
     <row r="126" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="5" t="s">
-        <v>1898</v>
+        <v>1959</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -56620,7 +56954,7 @@
     </row>
     <row r="127" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="5" t="s">
-        <v>1899</v>
+        <v>1960</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -56645,7 +56979,7 @@
     </row>
     <row r="128" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="5" t="s">
-        <v>1900</v>
+        <v>1961</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -56670,7 +57004,7 @@
     </row>
     <row r="129" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="5" t="s">
-        <v>1901</v>
+        <v>1962</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -56695,7 +57029,7 @@
     </row>
     <row r="130" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="5" t="s">
-        <v>1902</v>
+        <v>1963</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -56720,7 +57054,7 @@
     </row>
     <row r="131" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="5" t="s">
-        <v>1903</v>
+        <v>1964</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -56745,7 +57079,7 @@
     </row>
     <row r="132" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="5" t="s">
-        <v>1904</v>
+        <v>1965</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -56770,7 +57104,7 @@
     </row>
     <row r="133" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="5" t="s">
-        <v>1905</v>
+        <v>1966</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -56795,7 +57129,7 @@
     </row>
     <row r="134" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="5" t="s">
-        <v>1906</v>
+        <v>1967</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -56820,7 +57154,7 @@
     </row>
     <row r="135" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="5" t="s">
-        <v>1907</v>
+        <v>1968</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -56845,7 +57179,7 @@
     </row>
     <row r="136" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="5" t="s">
-        <v>1908</v>
+        <v>1969</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -56870,7 +57204,7 @@
     </row>
     <row r="137" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="5" t="s">
-        <v>1909</v>
+        <v>1970</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -56895,7 +57229,7 @@
     </row>
     <row r="138" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="5" t="s">
-        <v>1910</v>
+        <v>1971</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -56920,7 +57254,7 @@
     </row>
     <row r="139" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="5" t="s">
-        <v>1911</v>
+        <v>1972</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -56945,7 +57279,7 @@
     </row>
     <row r="140" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="5" t="s">
-        <v>1912</v>
+        <v>1973</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -56970,7 +57304,7 @@
     </row>
     <row r="141" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="5" t="s">
-        <v>1802</v>
+        <v>1863</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -56995,7 +57329,7 @@
     </row>
     <row r="142" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="5" t="s">
-        <v>1913</v>
+        <v>1974</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -57020,7 +57354,7 @@
     </row>
     <row r="143" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="5" t="s">
-        <v>1847</v>
+        <v>1908</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -57045,7 +57379,7 @@
     </row>
     <row r="144" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="5" t="s">
-        <v>1914</v>
+        <v>1975</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -57070,7 +57404,7 @@
     </row>
     <row r="145" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="5" t="s">
-        <v>1915</v>
+        <v>1976</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -57095,7 +57429,7 @@
     </row>
     <row r="146" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="5" t="s">
-        <v>1916</v>
+        <v>1977</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -57145,7 +57479,7 @@
     </row>
     <row r="148" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="5" t="s">
-        <v>1917</v>
+        <v>1978</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -57170,7 +57504,7 @@
     </row>
     <row r="149" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="5" t="s">
-        <v>1918</v>
+        <v>1979</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -57195,7 +57529,7 @@
     </row>
     <row r="150" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="5" t="s">
-        <v>1919</v>
+        <v>1980</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -57220,7 +57554,7 @@
     </row>
     <row r="151" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="5" t="s">
-        <v>1920</v>
+        <v>1981</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -57245,7 +57579,7 @@
     </row>
     <row r="152" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="5" t="s">
-        <v>1921</v>
+        <v>1982</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -57270,7 +57604,7 @@
     </row>
     <row r="153" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="5" t="s">
-        <v>1922</v>
+        <v>1983</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -57295,7 +57629,7 @@
     </row>
     <row r="154" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="5" t="s">
-        <v>1825</v>
+        <v>1886</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -57320,7 +57654,7 @@
     </row>
     <row r="155" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="5" t="s">
-        <v>1923</v>
+        <v>1984</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -57345,7 +57679,7 @@
     </row>
     <row r="156" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="5" t="s">
-        <v>1924</v>
+        <v>1985</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
@@ -57395,7 +57729,7 @@
     </row>
     <row r="158" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="5" t="s">
-        <v>1925</v>
+        <v>1986</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
@@ -57420,7 +57754,7 @@
     </row>
     <row r="159" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="5" t="s">
-        <v>1926</v>
+        <v>1987</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -57470,7 +57804,7 @@
     </row>
     <row r="161" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="5" t="s">
-        <v>1794</v>
+        <v>1855</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -57495,7 +57829,7 @@
     </row>
     <row r="162" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="5" t="s">
-        <v>1927</v>
+        <v>1988</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
@@ -57520,7 +57854,7 @@
     </row>
     <row r="163" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="5" t="s">
-        <v>1928</v>
+        <v>1989</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -57545,7 +57879,7 @@
     </row>
     <row r="164" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="5" t="s">
-        <v>1929</v>
+        <v>1990</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
@@ -57570,7 +57904,7 @@
     </row>
     <row r="165" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="5" t="s">
-        <v>1930</v>
+        <v>1991</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
@@ -57595,7 +57929,7 @@
     </row>
     <row r="166" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="5" t="s">
-        <v>1931</v>
+        <v>1992</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
@@ -57620,7 +57954,7 @@
     </row>
     <row r="167" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="5" t="s">
-        <v>1932</v>
+        <v>1993</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -57645,7 +57979,7 @@
     </row>
     <row r="168" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="5" t="s">
-        <v>1933</v>
+        <v>1994</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
@@ -57670,7 +58004,7 @@
     </row>
     <row r="169" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="5" t="s">
-        <v>1934</v>
+        <v>1995</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
@@ -57695,7 +58029,7 @@
     </row>
     <row r="170" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="28" t="s">
-        <v>1935</v>
+        <v>1996</v>
       </c>
       <c r="C170" s="26"/>
       <c r="D170" s="26"/>
@@ -57929,7 +58263,7 @@
     </row>
     <row r="6" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>1936</v>
+        <v>1997</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -57938,7 +58272,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="8"/>
       <c r="I6" s="5" t="s">
-        <v>1937</v>
+        <v>1998</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
@@ -57958,7 +58292,7 @@
     </row>
     <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
-        <v>1938</v>
+        <v>1999</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -57967,7 +58301,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="8"/>
       <c r="I7" s="5" t="s">
-        <v>1939</v>
+        <v>2000</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
@@ -58035,7 +58369,7 @@
     </row>
     <row r="10" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
-        <v>1940</v>
+        <v>2001</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -58060,7 +58394,7 @@
     </row>
     <row r="11" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
-        <v>1941</v>
+        <v>2002</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -58085,7 +58419,7 @@
     </row>
     <row r="12" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="s">
-        <v>1942</v>
+        <v>2003</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -58110,7 +58444,7 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>1943</v>
+        <v>2004</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -61518,55 +61852,55 @@
         <v>1129</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1944</v>
+        <v>2005</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1945</v>
+        <v>2006</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>1946</v>
+        <v>2007</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="8" t="s">
-        <v>1947</v>
+        <v>2008</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>1948</v>
+        <v>2009</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>1949</v>
+        <v>2010</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>1950</v>
+        <v>2011</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="13"/>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6" t="s">
-        <v>1951</v>
+        <v>2012</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6" t="s">
-        <v>1952</v>
+        <v>2013</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>1953</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
-        <v>1954</v>
+        <v>2015</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1955</v>
+        <v>2016</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1956</v>
+        <v>2017</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -61575,10 +61909,10 @@
         <v>992</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>1957</v>
+        <v>2018</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>1958</v>
+        <v>2019</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>30</v>
@@ -61593,7 +61927,7 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6" t="s">
-        <v>1959</v>
+        <v>2020</v>
       </c>
       <c r="V7" s="8"/>
     </row>
@@ -61602,22 +61936,22 @@
         <v>1467</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1960</v>
+        <v>2021</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1961</v>
+        <v>2022</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="8" t="s">
-        <v>1962</v>
+        <v>2023</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1963</v>
+        <v>2024</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>1964</v>
+        <v>2025</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>486</v>
@@ -61632,32 +61966,32 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6" t="s">
-        <v>1965</v>
+        <v>2026</v>
       </c>
       <c r="V8" s="8"/>
     </row>
     <row r="9" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
-        <v>1966</v>
+        <v>2027</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1967</v>
+        <v>2028</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="8" t="s">
-        <v>1968</v>
+        <v>2029</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>1969</v>
+        <v>2030</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>1970</v>
+        <v>2031</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>1971</v>
+        <v>2032</v>
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="18"/>
@@ -61669,7 +62003,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6" t="s">
-        <v>1972</v>
+        <v>2033</v>
       </c>
       <c r="V9" s="8"/>
     </row>
@@ -61678,20 +62012,20 @@
         <v>1101</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1973</v>
+        <v>2034</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="8" t="s">
-        <v>1974</v>
+        <v>2035</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>1975</v>
+        <v>2036</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>1976</v>
+        <v>2037</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -61704,16 +62038,16 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6" t="s">
-        <v>1977</v>
+        <v>2038</v>
       </c>
       <c r="V10" s="8"/>
     </row>
     <row r="11" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
-        <v>1829</v>
+        <v>1890</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1978</v>
+        <v>2039</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -61721,10 +62055,10 @@
       <c r="G11" s="6"/>
       <c r="H11" s="8"/>
       <c r="I11" s="5" t="s">
-        <v>1979</v>
+        <v>2040</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>1980</v>
+        <v>2041</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -61737,16 +62071,16 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6" t="s">
-        <v>1981</v>
+        <v>2042</v>
       </c>
       <c r="V11" s="8"/>
     </row>
     <row r="12" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="s">
-        <v>1982</v>
+        <v>2043</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1983</v>
+        <v>2044</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -61754,10 +62088,10 @@
       <c r="G12" s="6"/>
       <c r="H12" s="8"/>
       <c r="I12" s="5" t="s">
-        <v>1984</v>
+        <v>2045</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>1985</v>
+        <v>2046</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -61770,16 +62104,16 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6" t="s">
-        <v>1986</v>
+        <v>2047</v>
       </c>
       <c r="V12" s="8"/>
     </row>
     <row r="13" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>1987</v>
+        <v>2048</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1988</v>
+        <v>2049</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -61787,10 +62121,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="8"/>
       <c r="I13" s="5" t="s">
-        <v>1989</v>
+        <v>2050</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>1990</v>
+        <v>2051</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -61803,16 +62137,16 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6" t="s">
-        <v>1991</v>
+        <v>2052</v>
       </c>
       <c r="V13" s="8"/>
     </row>
     <row r="14" s="4" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>1992</v>
+        <v>2053</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1993</v>
+        <v>2054</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -61820,10 +62154,10 @@
       <c r="G14" s="6"/>
       <c r="H14" s="8"/>
       <c r="I14" s="5" t="s">
-        <v>1994</v>
+        <v>2055</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>1995</v>
+        <v>2056</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -61836,16 +62170,16 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6" t="s">
-        <v>1996</v>
+        <v>2057</v>
       </c>
       <c r="V14" s="8"/>
     </row>
     <row r="15" s="4" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="s">
-        <v>1997</v>
+        <v>2058</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1993</v>
+        <v>2054</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -61853,7 +62187,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="8"/>
       <c r="I15" s="5" t="s">
-        <v>1998</v>
+        <v>2059</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -61867,16 +62201,16 @@
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6" t="s">
-        <v>1999</v>
+        <v>2060</v>
       </c>
       <c r="V15" s="8"/>
     </row>
     <row r="16" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
-        <v>2000</v>
+        <v>2061</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>2001</v>
+        <v>2062</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -61884,7 +62218,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="8"/>
       <c r="I16" s="5" t="s">
-        <v>2002</v>
+        <v>2063</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -61898,13 +62232,13 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6" t="s">
-        <v>2003</v>
+        <v>2064</v>
       </c>
       <c r="V16" s="8"/>
     </row>
     <row r="17" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="s">
-        <v>2004</v>
+        <v>2065</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>1644</v>
@@ -61915,7 +62249,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="8"/>
       <c r="I17" s="5" t="s">
-        <v>2005</v>
+        <v>2066</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -61933,10 +62267,10 @@
     </row>
     <row r="18" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="s">
-        <v>2006</v>
+        <v>2067</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>2007</v>
+        <v>2068</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -61944,7 +62278,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="8"/>
       <c r="I18" s="5" t="s">
-        <v>2008</v>
+        <v>2069</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -61962,10 +62296,10 @@
     </row>
     <row r="19" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5" t="s">
-        <v>2009</v>
+        <v>2070</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>2010</v>
+        <v>2071</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -61973,7 +62307,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="8"/>
       <c r="I19" s="5" t="s">
-        <v>2011</v>
+        <v>2072</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -61991,7 +62325,7 @@
     </row>
     <row r="20" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="s">
-        <v>1796</v>
+        <v>1857</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -62016,7 +62350,7 @@
     </row>
     <row r="21" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5" t="s">
-        <v>2012</v>
+        <v>2073</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -62041,7 +62375,7 @@
     </row>
     <row r="22" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="s">
-        <v>2013</v>
+        <v>2074</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -62066,7 +62400,7 @@
     </row>
     <row r="23" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="s">
-        <v>2014</v>
+        <v>2075</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -62091,7 +62425,7 @@
     </row>
     <row r="24" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5" t="s">
-        <v>2015</v>
+        <v>2076</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -62116,7 +62450,7 @@
     </row>
     <row r="25" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5" t="s">
-        <v>2016</v>
+        <v>2077</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -62141,7 +62475,7 @@
     </row>
     <row r="26" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5" t="s">
-        <v>2017</v>
+        <v>2078</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -62166,7 +62500,7 @@
     </row>
     <row r="27" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5" t="s">
-        <v>2018</v>
+        <v>2079</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -62191,7 +62525,7 @@
     </row>
     <row r="28" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>2019</v>
+        <v>2080</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -62216,7 +62550,7 @@
     </row>
     <row r="29" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5" t="s">
-        <v>2020</v>
+        <v>2081</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -62241,7 +62575,7 @@
     </row>
     <row r="30" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5" t="s">
-        <v>2021</v>
+        <v>2082</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -62266,7 +62600,7 @@
     </row>
     <row r="31" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="5" t="s">
-        <v>2022</v>
+        <v>2083</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -62291,7 +62625,7 @@
     </row>
     <row r="32" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="5" t="s">
-        <v>2023</v>
+        <v>2084</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -62316,7 +62650,7 @@
     </row>
     <row r="33" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="5" t="s">
-        <v>2024</v>
+        <v>2085</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -62341,7 +62675,7 @@
     </row>
     <row r="34" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="5" t="s">
-        <v>2025</v>
+        <v>2086</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -62391,7 +62725,7 @@
     </row>
     <row r="36" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="5" t="s">
-        <v>2026</v>
+        <v>2087</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -62416,7 +62750,7 @@
     </row>
     <row r="37" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="5" t="s">
-        <v>2027</v>
+        <v>2088</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -62441,7 +62775,7 @@
     </row>
     <row r="38" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="5" t="s">
-        <v>2028</v>
+        <v>2089</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -62466,7 +62800,7 @@
     </row>
     <row r="39" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="5" t="s">
-        <v>2029</v>
+        <v>2090</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -62491,7 +62825,7 @@
     </row>
     <row r="40" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="5" t="s">
-        <v>2030</v>
+        <v>2091</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -62516,7 +62850,7 @@
     </row>
     <row r="41" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="5" t="s">
-        <v>2031</v>
+        <v>2092</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -62541,7 +62875,7 @@
     </row>
     <row r="42" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="5" t="s">
-        <v>2032</v>
+        <v>2093</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -62566,7 +62900,7 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="5" t="s">
-        <v>2033</v>
+        <v>2094</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -62591,7 +62925,7 @@
     </row>
     <row r="44" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="5" t="s">
-        <v>1801</v>
+        <v>1862</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -62616,7 +62950,7 @@
     </row>
     <row r="45" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="5" t="s">
-        <v>2034</v>
+        <v>2095</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -62641,7 +62975,7 @@
     </row>
     <row r="46" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5" t="s">
-        <v>2035</v>
+        <v>2096</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -62666,7 +63000,7 @@
     </row>
     <row r="47" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="5" t="s">
-        <v>2036</v>
+        <v>2097</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -62691,7 +63025,7 @@
     </row>
     <row r="48" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="5" t="s">
-        <v>2037</v>
+        <v>2098</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -62716,7 +63050,7 @@
     </row>
     <row r="49" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="5" t="s">
-        <v>2038</v>
+        <v>2099</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -62741,7 +63075,7 @@
     </row>
     <row r="50" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="5" t="s">
-        <v>2039</v>
+        <v>2100</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -62766,7 +63100,7 @@
     </row>
     <row r="51" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="5" t="s">
-        <v>2040</v>
+        <v>2101</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -62791,7 +63125,7 @@
     </row>
     <row r="52" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="5" t="s">
-        <v>2041</v>
+        <v>2102</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -62816,7 +63150,7 @@
     </row>
     <row r="53" s="4" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="5" t="s">
-        <v>2042</v>
+        <v>2103</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -62841,7 +63175,7 @@
     </row>
     <row r="54" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="5" t="s">
-        <v>2043</v>
+        <v>2104</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -62866,7 +63200,7 @@
     </row>
     <row r="55" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="5" t="s">
-        <v>2044</v>
+        <v>2105</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -62891,7 +63225,7 @@
     </row>
     <row r="56" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="5" t="s">
-        <v>2045</v>
+        <v>2106</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -62916,7 +63250,7 @@
     </row>
     <row r="57" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="5" t="s">
-        <v>2046</v>
+        <v>2107</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -62941,7 +63275,7 @@
     </row>
     <row r="58" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="5" t="s">
-        <v>2047</v>
+        <v>2108</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -62966,7 +63300,7 @@
     </row>
     <row r="59" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="5" t="s">
-        <v>2048</v>
+        <v>2109</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -62991,7 +63325,7 @@
     </row>
     <row r="60" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="5" t="s">
-        <v>2049</v>
+        <v>2110</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -63016,7 +63350,7 @@
     </row>
     <row r="61" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="5" t="s">
-        <v>2050</v>
+        <v>2111</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -63041,7 +63375,7 @@
     </row>
     <row r="62" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="5" t="s">
-        <v>2051</v>
+        <v>2112</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -63066,7 +63400,7 @@
     </row>
     <row r="63" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="5" t="s">
-        <v>2052</v>
+        <v>2113</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -63091,7 +63425,7 @@
     </row>
     <row r="64" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="5" t="s">
-        <v>2053</v>
+        <v>2114</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -63116,7 +63450,7 @@
     </row>
     <row r="65" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="5" t="s">
-        <v>2054</v>
+        <v>2115</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -63141,7 +63475,7 @@
     </row>
     <row r="66" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="5" t="s">
-        <v>2055</v>
+        <v>2116</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
